--- a/src/main/resources/excel.xlsx
+++ b/src/main/resources/excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhk/Desktop/spring/GitHub/excel-exam/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{209BF682-A7A7-7340-A4AF-4719DB63981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEDDD61-9F02-3142-AD77-3A5FCDC39424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="-2560" yWindow="-18740" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="netflix_titles" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,13 +116,501 @@
   <si>
     <t>type-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>식별자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>순번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"num"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>명칭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"distance"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"time"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>속도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"speed"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>기본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"basic"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>계산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"calc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,6 +764,33 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo-Regular"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -706,8 +1222,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,11 +1583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1118,6 +1637,9 @@
       <c r="F2">
         <v>13.5</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1199,11 +1721,70 @@
         <v>14</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>